--- a/手板报价单_2025-06-09.xlsx
+++ b/手板报价单_2025-06-09.xlsx
@@ -200,667 +200,692 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="342900"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
       <row>11</row>
       <rowOff>0</rowOff>
     </from>
+    <ext cx="476250" cy="457200"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="466725" cy="457200"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="447675"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="323850"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="428625" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="409575" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="409575"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="466725" cy="447675"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="466725" cy="342900"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>21</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="352425"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>22</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="428625"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>23</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="447675"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>24</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="428625" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>25</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="390525"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="16" name="Image 16" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>26</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="457200" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="17" name="Image 17" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>27</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="438150" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="18" name="Image 18" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>28</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="371475" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="19" name="Image 19" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>29</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="409575"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="20" name="Image 20" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>30</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="371475"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="21" name="Image 21" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>31</row>
+      <rowOff>0</rowOff>
+    </from>
     <ext cx="476250" cy="342900"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>12</row>
+        <cNvPr id="22" name="Image 22" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>32</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="142875"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="23" name="Image 23" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>33</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="285750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="24" name="Image 24" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>34</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="466725" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="25" name="Image 25" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>35</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="428625" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="26" name="Image 26" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>36</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="400050"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="27" name="Image 27" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>37</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="457200"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>13</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="466725" cy="457200"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>14</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="447675"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>15</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="323850"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="5" name="Image 5" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>16</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="6" name="Image 6" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>17</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="409575" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="7" name="Image 7" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>18</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="409575"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="8" name="Image 8" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>19</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="333375"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="9" name="Image 9" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>20</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="466725" cy="447675"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="10" name="Image 10" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>21</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="466725" cy="342900"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="11" name="Image 11" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>22</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="352425"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="12" name="Image 12" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>23</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="428625"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="13" name="Image 13" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>24</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="447675"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="14" name="Image 14" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>25</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="15" name="Image 15" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>26</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="390525"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="16" name="Image 16" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>27</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="457200" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="17" name="Image 17" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>28</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="438150" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="18" name="Image 18" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>29</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="371475" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="19" name="Image 19" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>30</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="409575"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="20" name="Image 20" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId20"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>31</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="371475"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="21" name="Image 21" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>32</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="342900"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="22" name="Image 22" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId22"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>33</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="142875"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="23" name="Image 23" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId23"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>34</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="285750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="24" name="Image 24" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId24"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>35</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="466725" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="25" name="Image 25" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId25"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>36</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="26" name="Image 26" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId26"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>37</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="400050"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="27" name="Image 27" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId27"/>
+        <cNvPr id="28" name="Image 28" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId28"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -878,14 +903,14 @@
       <row>38</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="476250" cy="457200"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="28" name="Image 28" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId28"/>
+    <ext cx="476250" cy="295275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="29" name="Image 29" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId29"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -901,31 +926,6 @@
       <col>1</col>
       <colOff>0</colOff>
       <row>39</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="295275"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="29" name="Image 29" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId29"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>40</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="371475"/>
@@ -1238,7 +1238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1400,12 +1400,28 @@
       </c>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="n"/>
+      <c r="A11" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="B11" s="7" t="inlineStr"/>
-      <c r="C11" s="8" t="n"/>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="7" t="n"/>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>电池仓</t>
+        </is>
+      </c>
+      <c r="D11" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G11" s="7" t="n">
         <v>0</v>
       </c>
@@ -1413,12 +1429,12 @@
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="7" t="inlineStr"/>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>电池仓</t>
+          <t>电池盖</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
@@ -1441,12 +1457,12 @@
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" s="7" t="inlineStr"/>
       <c r="C13" s="8" t="inlineStr">
         <is>
-          <t>电池盖</t>
+          <t>前壳</t>
         </is>
       </c>
       <c r="D13" s="7" t="inlineStr">
@@ -1469,12 +1485,12 @@
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" s="7" t="inlineStr"/>
       <c r="C14" s="8" t="inlineStr">
         <is>
-          <t>前壳</t>
+          <t>按键1</t>
         </is>
       </c>
       <c r="D14" s="7" t="inlineStr">
@@ -1497,12 +1513,12 @@
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" s="7" t="inlineStr"/>
       <c r="C15" s="8" t="inlineStr">
         <is>
-          <t>按键1</t>
+          <t>按键2</t>
         </is>
       </c>
       <c r="D15" s="7" t="inlineStr">
@@ -1525,12 +1541,12 @@
     </row>
     <row r="16" ht="60" customHeight="1">
       <c r="A16" s="7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" s="7" t="inlineStr"/>
       <c r="C16" s="8" t="inlineStr">
         <is>
-          <t>按键2</t>
+          <t>按键3</t>
         </is>
       </c>
       <c r="D16" s="7" t="inlineStr">
@@ -1553,12 +1569,12 @@
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17" s="7" t="inlineStr"/>
       <c r="C17" s="8" t="inlineStr">
         <is>
-          <t>按键3</t>
+          <t>按键板</t>
         </is>
       </c>
       <c r="D17" s="7" t="inlineStr">
@@ -1581,12 +1597,12 @@
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B18" s="7" t="inlineStr"/>
       <c r="C18" s="8" t="inlineStr">
         <is>
-          <t>按键板</t>
+          <t>电源板</t>
         </is>
       </c>
       <c r="D18" s="7" t="inlineStr">
@@ -1609,12 +1625,12 @@
     </row>
     <row r="19" ht="60" customHeight="1">
       <c r="A19" s="7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19" s="7" t="inlineStr"/>
       <c r="C19" s="8" t="inlineStr">
         <is>
-          <t>电源板</t>
+          <t>负极簧片</t>
         </is>
       </c>
       <c r="D19" s="7" t="inlineStr">
@@ -1637,12 +1653,12 @@
     </row>
     <row r="20" ht="60" customHeight="1">
       <c r="A20" s="7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" s="7" t="inlineStr"/>
       <c r="C20" s="8" t="inlineStr">
         <is>
-          <t>负极簧片</t>
+          <t>负极接线片</t>
         </is>
       </c>
       <c r="D20" s="7" t="inlineStr">
@@ -1665,12 +1681,12 @@
     </row>
     <row r="21" ht="60" customHeight="1">
       <c r="A21" s="7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21" s="7" t="inlineStr"/>
       <c r="C21" s="8" t="inlineStr">
         <is>
-          <t>负极接线片</t>
+          <t>接口板</t>
         </is>
       </c>
       <c r="D21" s="7" t="inlineStr">
@@ -1693,12 +1709,12 @@
     </row>
     <row r="22" ht="60" customHeight="1">
       <c r="A22" s="7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22" s="7" t="inlineStr"/>
       <c r="C22" s="8" t="inlineStr">
         <is>
-          <t>接口板</t>
+          <t>激光装饰片</t>
         </is>
       </c>
       <c r="D22" s="7" t="inlineStr">
@@ -1721,12 +1737,12 @@
     </row>
     <row r="23" ht="60" customHeight="1">
       <c r="A23" s="7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B23" s="7" t="inlineStr"/>
       <c r="C23" s="8" t="inlineStr">
         <is>
-          <t>激光装饰片</t>
+          <t>镜头</t>
         </is>
       </c>
       <c r="D23" s="7" t="inlineStr">
@@ -1749,12 +1765,12 @@
     </row>
     <row r="24" ht="60" customHeight="1">
       <c r="A24" s="7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B24" s="7" t="inlineStr"/>
       <c r="C24" s="8" t="inlineStr">
         <is>
-          <t>镜头</t>
+          <t>镜头转接件1</t>
         </is>
       </c>
       <c r="D24" s="7" t="inlineStr">
@@ -1777,12 +1793,12 @@
     </row>
     <row r="25" ht="60" customHeight="1">
       <c r="A25" s="7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B25" s="7" t="inlineStr"/>
       <c r="C25" s="8" t="inlineStr">
         <is>
-          <t>镜头转接件1</t>
+          <t>镜头转接件2</t>
         </is>
       </c>
       <c r="D25" s="7" t="inlineStr">
@@ -1805,12 +1821,12 @@
     </row>
     <row r="26" ht="60" customHeight="1">
       <c r="A26" s="7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B26" s="7" t="inlineStr"/>
       <c r="C26" s="8" t="inlineStr">
         <is>
-          <t>镜头转接件2</t>
+          <t>镜头转接件3</t>
         </is>
       </c>
       <c r="D26" s="7" t="inlineStr">
@@ -1833,12 +1849,12 @@
     </row>
     <row r="27" ht="60" customHeight="1">
       <c r="A27" s="7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B27" s="7" t="inlineStr"/>
       <c r="C27" s="8" t="inlineStr">
         <is>
-          <t>镜头转接件3</t>
+          <t>机芯支架</t>
         </is>
       </c>
       <c r="D27" s="7" t="inlineStr">
@@ -1861,12 +1877,12 @@
     </row>
     <row r="28" ht="60" customHeight="1">
       <c r="A28" s="7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B28" s="7" t="inlineStr"/>
       <c r="C28" s="8" t="inlineStr">
         <is>
-          <t>机芯支架</t>
+          <t>散热板</t>
         </is>
       </c>
       <c r="D28" s="7" t="inlineStr">
@@ -1889,12 +1905,12 @@
     </row>
     <row r="29" ht="60" customHeight="1">
       <c r="A29" s="7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B29" s="7" t="inlineStr"/>
       <c r="C29" s="8" t="inlineStr">
         <is>
-          <t>散热板</t>
+          <t>手柄</t>
         </is>
       </c>
       <c r="D29" s="7" t="inlineStr">
@@ -1917,12 +1933,12 @@
     </row>
     <row r="30" ht="60" customHeight="1">
       <c r="A30" s="7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B30" s="7" t="inlineStr"/>
       <c r="C30" s="8" t="inlineStr">
         <is>
-          <t>手柄</t>
+          <t>探测器板</t>
         </is>
       </c>
       <c r="D30" s="7" t="inlineStr">
@@ -1945,12 +1961,12 @@
     </row>
     <row r="31" ht="60" customHeight="1">
       <c r="A31" s="7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B31" s="7" t="inlineStr"/>
       <c r="C31" s="8" t="inlineStr">
         <is>
-          <t>探测器板</t>
+          <t>显示屏</t>
         </is>
       </c>
       <c r="D31" s="7" t="inlineStr">
@@ -1973,12 +1989,12 @@
     </row>
     <row r="32" ht="60" customHeight="1">
       <c r="A32" s="7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B32" s="7" t="inlineStr"/>
       <c r="C32" s="8" t="inlineStr">
         <is>
-          <t>显示屏</t>
+          <t>显示屏壳体</t>
         </is>
       </c>
       <c r="D32" s="7" t="inlineStr">
@@ -2001,12 +2017,12 @@
     </row>
     <row r="33" ht="60" customHeight="1">
       <c r="A33" s="7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B33" s="7" t="inlineStr"/>
       <c r="C33" s="8" t="inlineStr">
         <is>
-          <t>显示屏壳体</t>
+          <t>右饰片</t>
         </is>
       </c>
       <c r="D33" s="7" t="inlineStr">
@@ -2029,12 +2045,12 @@
     </row>
     <row r="34" ht="60" customHeight="1">
       <c r="A34" s="7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B34" s="7" t="inlineStr"/>
       <c r="C34" s="8" t="inlineStr">
         <is>
-          <t>右饰片</t>
+          <t>左饰片</t>
         </is>
       </c>
       <c r="D34" s="7" t="inlineStr">
@@ -2057,12 +2073,12 @@
     </row>
     <row r="35" ht="60" customHeight="1">
       <c r="A35" s="7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B35" s="7" t="inlineStr"/>
       <c r="C35" s="8" t="inlineStr">
         <is>
-          <t>左饰片</t>
+          <t>装饰片1</t>
         </is>
       </c>
       <c r="D35" s="7" t="inlineStr">
@@ -2085,12 +2101,12 @@
     </row>
     <row r="36" ht="60" customHeight="1">
       <c r="A36" s="7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B36" s="7" t="inlineStr"/>
       <c r="C36" s="8" t="inlineStr">
         <is>
-          <t>装饰片1</t>
+          <t>装饰片2</t>
         </is>
       </c>
       <c r="D36" s="7" t="inlineStr">
@@ -2113,12 +2129,12 @@
     </row>
     <row r="37" ht="60" customHeight="1">
       <c r="A37" s="7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B37" s="7" t="inlineStr"/>
       <c r="C37" s="8" t="inlineStr">
         <is>
-          <t>装饰片2</t>
+          <t>转接座</t>
         </is>
       </c>
       <c r="D37" s="7" t="inlineStr">
@@ -2141,12 +2157,12 @@
     </row>
     <row r="38" ht="60" customHeight="1">
       <c r="A38" s="7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B38" s="7" t="inlineStr"/>
       <c r="C38" s="8" t="inlineStr">
         <is>
-          <t>转接座</t>
+          <t>转轴座</t>
         </is>
       </c>
       <c r="D38" s="7" t="inlineStr">
@@ -2169,12 +2185,12 @@
     </row>
     <row r="39" ht="60" customHeight="1">
       <c r="A39" s="7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B39" s="7" t="inlineStr"/>
       <c r="C39" s="8" t="inlineStr">
         <is>
-          <t>转轴座</t>
+          <t>主板</t>
         </is>
       </c>
       <c r="D39" s="7" t="inlineStr">
@@ -2197,12 +2213,12 @@
     </row>
     <row r="40" ht="60" customHeight="1">
       <c r="A40" s="7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B40" s="7" t="inlineStr"/>
       <c r="C40" s="8" t="inlineStr">
         <is>
-          <t>主板</t>
+          <t>主壳体</t>
         </is>
       </c>
       <c r="D40" s="7" t="inlineStr">
@@ -2223,115 +2239,87 @@
       </c>
       <c r="H40" s="8" t="inlineStr"/>
     </row>
-    <row r="41" ht="60" customHeight="1">
-      <c r="A41" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="B41" s="7" t="inlineStr"/>
-      <c r="C41" s="8" t="inlineStr">
-        <is>
-          <t>主壳体</t>
-        </is>
-      </c>
-      <c r="D41" s="7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E41" s="7" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="F41" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="8" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="9" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="9" t="inlineStr">
         <is>
           <t>合计:</t>
         </is>
       </c>
-      <c r="B42" s="5" t="n"/>
-      <c r="C42" s="5" t="n"/>
-      <c r="D42" s="5" t="n"/>
-      <c r="E42" s="5" t="n"/>
-      <c r="F42" s="5" t="n"/>
-      <c r="G42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="5" t="n"/>
+      <c r="B41" s="5" t="n"/>
+      <c r="C41" s="5" t="n"/>
+      <c r="D41" s="5" t="n"/>
+      <c r="E41" s="5" t="n"/>
+      <c r="F41" s="5" t="n"/>
+      <c r="G41" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="5" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>未 税 总 价: (人民币)</t>
+        </is>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>未 税 总 价: (人民币)</t>
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>手板加工周期:</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>手板加工周期:</t>
+          <t>付款方式: 月结30天</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>付款方式: 月结30天</t>
+          <t>交货日期: 确认后 (7) 日内完成</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>交货日期: 确认后 (7) 日内完成</t>
+          <t>验收标准: 依据甲方2D、3D、说明文档等相关文件进行验收</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>验收标准: 依据甲方2D、3D、说明文档等相关文件进行验收</t>
+          <t>备 注:</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>备 注:</t>
+          <t>此报价单适用于所有杭州海康威视科技有限公司的子公司及关联公司。</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>此报价单适用于所有杭州海康威视科技有限公司的子公司及关联公司。</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="3" t="inlineStr">
-        <is>
           <t>双方以含税价格结算，具体税率按国家税务政策规定，供应商需提供合格的增值税发票，否则按基</t>
         </is>
       </c>
     </row>
+    <row r="53">
+      <c r="F53" s="11" t="inlineStr">
+        <is>
+          <t>乙方签名确认</t>
+        </is>
+      </c>
+    </row>
     <row r="54">
-      <c r="F54" s="11" t="inlineStr">
-        <is>
-          <t>乙方签名确认</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="F55" s="12" t="inlineStr">
+      <c r="F54" s="12" t="inlineStr">
         <is>
           <t>2025-06-09</t>
         </is>
@@ -2339,31 +2327,31 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A41:F41"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A48:H48"/>
     <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A51:H51"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A45:H45"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A45:H45"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A46:H46"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="E5:H5"/>
+    <mergeCell ref="A43:F43"/>
     <mergeCell ref="A50:H50"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A44:F44"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F55:H55"/>
     <mergeCell ref="A47:H47"/>
+    <mergeCell ref="F53:H53"/>
     <mergeCell ref="F54:H54"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E6:H6"/>
+    <mergeCell ref="A44:H44"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:H2"/>
   </mergeCells>

--- a/手板报价单_2025-06-09.xlsx
+++ b/手板报价单_2025-06-09.xlsx
@@ -192,161 +192,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>12</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="295275"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>13</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="314325"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>14</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="371475"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>15</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="371475"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>16</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="466725" cy="323850"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="5" name="Image 5" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>17</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="200025"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="6" name="Image 6" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -638,7 +483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,7 +523,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>联系人:舒康洪</t>
+          <t>联系人:</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -800,640 +645,278 @@
       </c>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="n"/>
+      <c r="A11" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="B11" s="7" t="inlineStr"/>
-      <c r="C11" s="8" t="n"/>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="7" t="n"/>
+      <c r="C11" s="8" t="n">
+        <v>190169051</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr">
+        <is>
+          <t>喷砂+
+黑色氧化</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr">
+        <is>
+          <t>6061AL</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>6</v>
+      </c>
       <c r="G11" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="n"/>
+      <c r="A12" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="B12" s="7" t="inlineStr"/>
-      <c r="C12" s="8" t="n"/>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>da-14-010578</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr">
+        <is>
+          <t>喷砂+
+黑色氧化</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr">
+        <is>
+          <t>6061AL</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>3</v>
+      </c>
       <c r="G12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="8" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>局部镭雕去氧化面</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13" s="7" t="inlineStr"/>
       <c r="C13" s="8" t="inlineStr">
         <is>
-          <t>野保相机T2-电池仓盖</t>
+          <t>da-14-010579</t>
         </is>
       </c>
       <c r="D13" s="7" t="inlineStr">
         <is>
-          <t>打磨，去毛刺</t>
+          <t>喷砂+
+黑色氧化</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr">
         <is>
-          <t>ABS</t>
+          <t>6061AL</t>
         </is>
       </c>
       <c r="F13" s="7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H13" s="8" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>局部镭雕去氧化面</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="7" t="n"/>
+      <c r="A14" s="7" t="n">
+        <v>4</v>
+      </c>
       <c r="B14" s="7" t="inlineStr"/>
       <c r="C14" s="8" t="inlineStr">
         <is>
-          <t>野保相机T2-电池仓（AA）</t>
+          <t>da-14-010592</t>
         </is>
       </c>
       <c r="D14" s="7" t="inlineStr">
         <is>
-          <t>打磨，去毛刺</t>
+          <t>喷砂+
+黑色氧化</t>
         </is>
       </c>
       <c r="E14" s="7" t="inlineStr">
         <is>
-          <t>ABS</t>
+          <t>6061AL</t>
         </is>
       </c>
       <c r="F14" s="7" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H14" s="8" t="inlineStr"/>
+      <c r="H14" s="8" t="inlineStr">
+        <is>
+          <t>局部镭雕去氧化面</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="n"/>
+      <c r="A15" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="B15" s="7" t="inlineStr"/>
       <c r="C15" s="8" t="inlineStr">
         <is>
-          <t>野保相机T2-电池仓限位扣</t>
+          <t>da-14-010634</t>
         </is>
       </c>
       <c r="D15" s="7" t="inlineStr">
         <is>
-          <t>打磨，去毛刺</t>
+          <t>喷砂+
+黑色氧化</t>
         </is>
       </c>
       <c r="E15" s="7" t="inlineStr">
         <is>
-          <t>ABS</t>
+          <t>6061AL</t>
         </is>
       </c>
       <c r="F15" s="7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>局部镭雕去氧化面</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="7" t="n"/>
+      <c r="A16" s="7" t="n">
+        <v>6</v>
+      </c>
       <c r="B16" s="7" t="inlineStr"/>
       <c r="C16" s="8" t="inlineStr">
         <is>
-          <t>野保相机T2-电池仓限位支架</t>
+          <t>xieyijiexi</t>
         </is>
       </c>
       <c r="D16" s="7" t="inlineStr">
         <is>
-          <t>打磨，去毛刺</t>
+          <t>喷砂+
+黑色氧化</t>
         </is>
       </c>
       <c r="E16" s="7" t="inlineStr">
         <is>
-          <t>ABS</t>
+          <t>6061AL</t>
         </is>
       </c>
       <c r="F16" s="7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H16" s="8" t="inlineStr"/>
-    </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="7" t="n"/>
-      <c r="B17" s="7" t="inlineStr"/>
-      <c r="C17" s="8" t="inlineStr">
-        <is>
-          <t>野保相机T2-后壳零件反切图纸</t>
-        </is>
-      </c>
-      <c r="D17" s="7" t="inlineStr">
-        <is>
-          <t>打磨，去毛刺</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr">
-        <is>
-          <t>ABS</t>
-        </is>
-      </c>
-      <c r="F17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="7" t="n">
+      <c r="H16" s="8" t="inlineStr">
+        <is>
+          <t>局部镭雕去氧化面</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="inlineStr">
+        <is>
+          <t>合计:</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="n"/>
+      <c r="C17" s="5" t="n"/>
+      <c r="D17" s="5" t="n"/>
+      <c r="E17" s="5" t="n"/>
+      <c r="F17" s="5" t="n"/>
+      <c r="G17" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H17" s="8" t="inlineStr"/>
-    </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="7" t="n"/>
-      <c r="B18" s="7" t="inlineStr"/>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>野保相机T2-电池后盖板（AA）</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr">
-        <is>
-          <t>打磨，去毛刺</t>
-        </is>
-      </c>
-      <c r="E18" s="7" t="inlineStr">
-        <is>
-          <t>ABS</t>
-        </is>
-      </c>
-      <c r="F18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8" t="inlineStr"/>
-    </row>
-    <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="7" t="n"/>
-      <c r="B19" s="7" t="inlineStr"/>
-      <c r="C19" s="8" t="n"/>
-      <c r="D19" s="7" t="inlineStr"/>
-      <c r="E19" s="7" t="n"/>
-      <c r="F19" s="7" t="n"/>
-      <c r="G19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="8" t="inlineStr"/>
-    </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="7" t="n"/>
-      <c r="B20" s="7" t="inlineStr"/>
-      <c r="C20" s="8" t="n"/>
-      <c r="D20" s="7" t="inlineStr"/>
-      <c r="E20" s="7" t="n"/>
-      <c r="F20" s="7" t="n"/>
-      <c r="G20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8" t="inlineStr"/>
-    </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="7" t="n"/>
-      <c r="B21" s="7" t="inlineStr"/>
-      <c r="C21" s="8" t="n"/>
-      <c r="D21" s="7" t="inlineStr"/>
-      <c r="E21" s="7" t="n"/>
-      <c r="F21" s="7" t="n"/>
-      <c r="G21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="8" t="inlineStr"/>
-    </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" s="7" t="n"/>
-      <c r="B22" s="7" t="inlineStr"/>
-      <c r="C22" s="8" t="n"/>
-      <c r="D22" s="7" t="inlineStr"/>
-      <c r="E22" s="7" t="n"/>
-      <c r="F22" s="7" t="n"/>
-      <c r="G22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="8" t="inlineStr"/>
-    </row>
-    <row r="23" ht="60" customHeight="1">
-      <c r="A23" s="7" t="n"/>
-      <c r="B23" s="7" t="inlineStr"/>
-      <c r="C23" s="8" t="n"/>
-      <c r="D23" s="7" t="inlineStr"/>
-      <c r="E23" s="7" t="n"/>
-      <c r="F23" s="7" t="n"/>
-      <c r="G23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="8" t="inlineStr"/>
-    </row>
-    <row r="24" ht="60" customHeight="1">
-      <c r="A24" s="7" t="n"/>
-      <c r="B24" s="7" t="inlineStr"/>
-      <c r="C24" s="8" t="n"/>
-      <c r="D24" s="7" t="inlineStr"/>
-      <c r="E24" s="7" t="n"/>
-      <c r="F24" s="7" t="n"/>
-      <c r="G24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="8" t="inlineStr"/>
-    </row>
-    <row r="25" ht="60" customHeight="1">
-      <c r="A25" s="7" t="n"/>
-      <c r="B25" s="7" t="inlineStr"/>
-      <c r="C25" s="8" t="n"/>
-      <c r="D25" s="7" t="inlineStr"/>
-      <c r="E25" s="7" t="n"/>
-      <c r="F25" s="7" t="n"/>
-      <c r="G25" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="8" t="inlineStr"/>
-    </row>
-    <row r="26" ht="60" customHeight="1">
-      <c r="A26" s="7" t="n"/>
-      <c r="B26" s="7" t="inlineStr"/>
-      <c r="C26" s="8" t="n"/>
-      <c r="D26" s="7" t="inlineStr"/>
-      <c r="E26" s="7" t="n"/>
-      <c r="F26" s="7" t="n"/>
-      <c r="G26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="8" t="inlineStr"/>
-    </row>
-    <row r="27" ht="60" customHeight="1">
-      <c r="A27" s="7" t="n"/>
-      <c r="B27" s="7" t="inlineStr"/>
-      <c r="C27" s="8" t="n"/>
-      <c r="D27" s="7" t="inlineStr"/>
-      <c r="E27" s="7" t="n"/>
-      <c r="F27" s="7" t="n"/>
-      <c r="G27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="8" t="inlineStr"/>
-    </row>
-    <row r="28" ht="60" customHeight="1">
-      <c r="A28" s="7" t="n"/>
-      <c r="B28" s="7" t="inlineStr"/>
-      <c r="C28" s="8" t="n"/>
-      <c r="D28" s="7" t="inlineStr"/>
-      <c r="E28" s="7" t="n"/>
-      <c r="F28" s="7" t="n"/>
-      <c r="G28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="8" t="inlineStr"/>
-    </row>
-    <row r="29" ht="60" customHeight="1">
-      <c r="A29" s="7" t="n"/>
-      <c r="B29" s="7" t="inlineStr"/>
-      <c r="C29" s="8" t="n"/>
-      <c r="D29" s="7" t="inlineStr"/>
-      <c r="E29" s="7" t="n"/>
-      <c r="F29" s="7" t="n"/>
-      <c r="G29" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="8" t="inlineStr"/>
-    </row>
-    <row r="30" ht="60" customHeight="1">
-      <c r="A30" s="7" t="n"/>
-      <c r="B30" s="7" t="inlineStr"/>
-      <c r="C30" s="8" t="n"/>
-      <c r="D30" s="7" t="inlineStr"/>
-      <c r="E30" s="7" t="n"/>
-      <c r="F30" s="7" t="n"/>
-      <c r="G30" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="8" t="inlineStr"/>
-    </row>
-    <row r="31" ht="60" customHeight="1">
-      <c r="A31" s="7" t="n"/>
-      <c r="B31" s="7" t="inlineStr"/>
-      <c r="C31" s="8" t="n"/>
-      <c r="D31" s="7" t="inlineStr"/>
-      <c r="E31" s="7" t="n"/>
-      <c r="F31" s="7" t="n"/>
-      <c r="G31" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="8" t="inlineStr"/>
-    </row>
-    <row r="32" ht="60" customHeight="1">
-      <c r="A32" s="7" t="n"/>
-      <c r="B32" s="7" t="inlineStr"/>
-      <c r="C32" s="8" t="n"/>
-      <c r="D32" s="7" t="inlineStr"/>
-      <c r="E32" s="7" t="n"/>
-      <c r="F32" s="7" t="n"/>
-      <c r="G32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="8" t="inlineStr"/>
-    </row>
-    <row r="33" ht="60" customHeight="1">
-      <c r="A33" s="7" t="n"/>
-      <c r="B33" s="7" t="inlineStr"/>
-      <c r="C33" s="8" t="n"/>
-      <c r="D33" s="7" t="inlineStr"/>
-      <c r="E33" s="7" t="n"/>
-      <c r="F33" s="7" t="n"/>
-      <c r="G33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="8" t="inlineStr"/>
-    </row>
-    <row r="34" ht="60" customHeight="1">
-      <c r="A34" s="7" t="n"/>
-      <c r="B34" s="7" t="inlineStr"/>
-      <c r="C34" s="8" t="n"/>
-      <c r="D34" s="7" t="inlineStr"/>
-      <c r="E34" s="7" t="n"/>
-      <c r="F34" s="7" t="n"/>
-      <c r="G34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="8" t="inlineStr"/>
-    </row>
-    <row r="35" ht="60" customHeight="1">
-      <c r="A35" s="7" t="n"/>
-      <c r="B35" s="7" t="inlineStr"/>
-      <c r="C35" s="8" t="n"/>
-      <c r="D35" s="7" t="inlineStr"/>
-      <c r="E35" s="7" t="n"/>
-      <c r="F35" s="7" t="n"/>
-      <c r="G35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="8" t="inlineStr"/>
-    </row>
-    <row r="36" ht="60" customHeight="1">
-      <c r="A36" s="7" t="n"/>
-      <c r="B36" s="7" t="inlineStr"/>
-      <c r="C36" s="8" t="n"/>
-      <c r="D36" s="7" t="inlineStr"/>
-      <c r="E36" s="7" t="n"/>
-      <c r="F36" s="7" t="n"/>
-      <c r="G36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="8" t="inlineStr"/>
-    </row>
-    <row r="37" ht="60" customHeight="1">
-      <c r="A37" s="7" t="n"/>
-      <c r="B37" s="7" t="inlineStr"/>
-      <c r="C37" s="8" t="n"/>
-      <c r="D37" s="7" t="inlineStr"/>
-      <c r="E37" s="7" t="n"/>
-      <c r="F37" s="7" t="n"/>
-      <c r="G37" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="8" t="inlineStr"/>
-    </row>
-    <row r="38" ht="60" customHeight="1">
-      <c r="A38" s="7" t="n"/>
-      <c r="B38" s="7" t="inlineStr"/>
-      <c r="C38" s="8" t="n"/>
-      <c r="D38" s="7" t="inlineStr"/>
-      <c r="E38" s="7" t="n"/>
-      <c r="F38" s="7" t="n"/>
-      <c r="G38" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="8" t="inlineStr"/>
-    </row>
-    <row r="39" ht="60" customHeight="1">
-      <c r="A39" s="7" t="n"/>
-      <c r="B39" s="7" t="inlineStr"/>
-      <c r="C39" s="8" t="n"/>
-      <c r="D39" s="7" t="inlineStr"/>
-      <c r="E39" s="7" t="n"/>
-      <c r="F39" s="7" t="n"/>
-      <c r="G39" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="8" t="inlineStr"/>
-    </row>
-    <row r="40" ht="60" customHeight="1">
-      <c r="A40" s="7" t="n"/>
-      <c r="B40" s="7" t="inlineStr"/>
-      <c r="C40" s="8" t="n"/>
-      <c r="D40" s="7" t="inlineStr"/>
-      <c r="E40" s="7" t="n"/>
-      <c r="F40" s="7" t="n"/>
-      <c r="G40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="8" t="inlineStr"/>
-    </row>
-    <row r="41" ht="60" customHeight="1">
-      <c r="A41" s="7" t="n"/>
-      <c r="B41" s="7" t="inlineStr"/>
-      <c r="C41" s="8" t="n"/>
-      <c r="D41" s="7" t="inlineStr"/>
-      <c r="E41" s="7" t="n"/>
-      <c r="F41" s="7" t="n"/>
-      <c r="G41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="8" t="inlineStr"/>
-    </row>
-    <row r="42" ht="60" customHeight="1">
-      <c r="A42" s="7" t="n"/>
-      <c r="B42" s="7" t="inlineStr"/>
-      <c r="C42" s="8" t="n"/>
-      <c r="D42" s="7" t="inlineStr"/>
-      <c r="E42" s="7" t="n"/>
-      <c r="F42" s="7" t="n"/>
-      <c r="G42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="8" t="inlineStr"/>
-    </row>
-    <row r="43" ht="60" customHeight="1">
-      <c r="A43" s="7" t="n"/>
-      <c r="B43" s="7" t="inlineStr"/>
-      <c r="C43" s="8" t="n"/>
-      <c r="D43" s="7" t="inlineStr"/>
-      <c r="E43" s="7" t="n"/>
-      <c r="F43" s="7" t="n"/>
-      <c r="G43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="8" t="inlineStr"/>
-    </row>
-    <row r="44" ht="60" customHeight="1">
-      <c r="A44" s="7" t="n"/>
-      <c r="B44" s="7" t="inlineStr"/>
-      <c r="C44" s="8" t="n"/>
-      <c r="D44" s="7" t="inlineStr"/>
-      <c r="E44" s="7" t="n"/>
-      <c r="F44" s="7" t="n"/>
-      <c r="G44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="8" t="inlineStr"/>
-    </row>
-    <row r="45" ht="60" customHeight="1">
-      <c r="A45" s="7" t="n"/>
-      <c r="B45" s="7" t="inlineStr"/>
-      <c r="C45" s="8" t="n"/>
-      <c r="D45" s="7" t="inlineStr"/>
-      <c r="E45" s="7" t="n"/>
-      <c r="F45" s="7" t="n"/>
-      <c r="G45" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="8" t="inlineStr"/>
-    </row>
-    <row r="46" ht="60" customHeight="1">
-      <c r="A46" s="7" t="n"/>
-      <c r="B46" s="7" t="inlineStr"/>
-      <c r="C46" s="8" t="n"/>
-      <c r="D46" s="7" t="inlineStr"/>
-      <c r="E46" s="7" t="n"/>
-      <c r="F46" s="7" t="n"/>
-      <c r="G46" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" s="8" t="inlineStr"/>
-    </row>
-    <row r="47" ht="60" customHeight="1">
-      <c r="A47" s="7" t="n"/>
-      <c r="B47" s="7" t="inlineStr"/>
-      <c r="C47" s="8" t="n"/>
-      <c r="D47" s="7" t="inlineStr"/>
-      <c r="E47" s="7" t="n"/>
-      <c r="F47" s="7" t="n"/>
-      <c r="G47" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" s="8" t="inlineStr"/>
-    </row>
-    <row r="48" ht="60" customHeight="1">
-      <c r="A48" s="7" t="n"/>
-      <c r="B48" s="7" t="inlineStr"/>
-      <c r="C48" s="8" t="n"/>
-      <c r="D48" s="7" t="inlineStr"/>
-      <c r="E48" s="7" t="n"/>
-      <c r="F48" s="7" t="n"/>
-      <c r="G48" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" s="8" t="inlineStr"/>
-    </row>
-    <row r="49" ht="60" customHeight="1">
-      <c r="A49" s="7" t="n"/>
-      <c r="B49" s="7" t="inlineStr"/>
-      <c r="C49" s="8" t="n"/>
-      <c r="D49" s="7" t="inlineStr"/>
-      <c r="E49" s="7" t="n"/>
-      <c r="F49" s="7" t="n"/>
-      <c r="G49" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" s="8" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="9" t="inlineStr">
-        <is>
-          <t>合计:</t>
-        </is>
-      </c>
-      <c r="B50" s="5" t="n"/>
-      <c r="C50" s="5" t="n"/>
-      <c r="D50" s="5" t="n"/>
-      <c r="E50" s="5" t="n"/>
-      <c r="F50" s="5" t="n"/>
-      <c r="G50" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" s="5" t="n"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="inlineStr">
+      <c r="H17" s="5" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>未 税 总 价: (人民币)</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="3" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>手板加工周期:</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="3" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>付款方式: 月结30天</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="3" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>交货日期: 确认后 (7) 日内完成</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="3" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>验收标准: 依据甲方2D、3D、说明文档等相关文件进行验收</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="3" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>备 注:</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="3" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>此报价单适用于所有杭州海康威视科技有限公司的子公司及关联公司。</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="3" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>双方以含税价格结算，具体税率按国家税务政策规定，供应商需提供合格的增值税发票，否则按基</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="F62" s="11" t="inlineStr">
+    <row r="29">
+      <c r="F29" s="11" t="inlineStr">
         <is>
           <t>乙方签名确认</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="F63" s="12" t="inlineStr">
+    <row r="30">
+      <c r="F30" s="12" t="inlineStr">
         <is>
           <t>2025-06-09</t>
         </is>
@@ -1442,34 +925,33 @@
   </sheetData>
   <mergeCells count="27">
     <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A59:H59"/>
     <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A24:H24"/>
     <mergeCell ref="E7:H7"/>
-    <mergeCell ref="A50:F50"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="G8:H8"/>
-    <mergeCell ref="F62:H62"/>
     <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A25:H25"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A17:F17"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="E5:H5"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A21:H21"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A19:F19"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A58:H58"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/手板报价单_2025-06-09.xlsx
+++ b/手板报价单_2025-06-09.xlsx
@@ -192,6 +192,761 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="342900"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="457200"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="466725" cy="457200"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="447675"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="323850"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="428625" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="409575" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="409575"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="466725" cy="447675"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="466725" cy="342900"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>21</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="352425"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>22</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="428625"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>23</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="447675"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>24</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="428625" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>25</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="390525"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="16" name="Image 16" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>26</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="457200" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="17" name="Image 17" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>27</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="438150" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="18" name="Image 18" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>28</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="371475" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="19" name="Image 19" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>29</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="409575"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="20" name="Image 20" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>30</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="371475"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="21" name="Image 21" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>31</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="342900"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="22" name="Image 22" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>32</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="142875"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="23" name="Image 23" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>33</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="285750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="24" name="Image 24" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>34</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="466725" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="25" name="Image 25" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>35</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="428625" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="26" name="Image 26" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>36</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="400050"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="27" name="Image 27" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>37</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="457200"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="28" name="Image 28" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>38</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="295275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="29" name="Image 29" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="371475"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="30" name="Image 30" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -483,7 +1238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,22 +1404,23 @@
         <v>1</v>
       </c>
       <c r="B11" s="7" t="inlineStr"/>
-      <c r="C11" s="8" t="n">
-        <v>190169051</v>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>电池仓</t>
+        </is>
       </c>
       <c r="D11" s="7" t="inlineStr">
         <is>
-          <t>喷砂+
-黑色氧化</t>
+          <t>无</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr">
         <is>
-          <t>6061AL</t>
+          <t>树脂</t>
         </is>
       </c>
       <c r="F11" s="7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G11" s="7" t="n">
         <v>0</v>
@@ -678,31 +1434,26 @@
       <c r="B12" s="7" t="inlineStr"/>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>da-14-010578</t>
+          <t>电池盖</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
         <is>
-          <t>喷砂+
-黑色氧化</t>
+          <t>无</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr">
         <is>
-          <t>6061AL</t>
+          <t>树脂</t>
         </is>
       </c>
       <c r="F12" s="7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>局部镭雕去氧化面</t>
-        </is>
-      </c>
+      <c r="H12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="n">
@@ -711,31 +1462,26 @@
       <c r="B13" s="7" t="inlineStr"/>
       <c r="C13" s="8" t="inlineStr">
         <is>
-          <t>da-14-010579</t>
+          <t>前壳</t>
         </is>
       </c>
       <c r="D13" s="7" t="inlineStr">
         <is>
-          <t>喷砂+
-黑色氧化</t>
+          <t>无</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr">
         <is>
-          <t>6061AL</t>
+          <t>树脂</t>
         </is>
       </c>
       <c r="F13" s="7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H13" s="8" t="inlineStr">
-        <is>
-          <t>局部镭雕去氧化面</t>
-        </is>
-      </c>
+      <c r="H13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="7" t="n">
@@ -744,31 +1490,26 @@
       <c r="B14" s="7" t="inlineStr"/>
       <c r="C14" s="8" t="inlineStr">
         <is>
-          <t>da-14-010592</t>
+          <t>按键1</t>
         </is>
       </c>
       <c r="D14" s="7" t="inlineStr">
         <is>
-          <t>喷砂+
-黑色氧化</t>
+          <t>无</t>
         </is>
       </c>
       <c r="E14" s="7" t="inlineStr">
         <is>
-          <t>6061AL</t>
+          <t>树脂</t>
         </is>
       </c>
       <c r="F14" s="7" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H14" s="8" t="inlineStr">
-        <is>
-          <t>局部镭雕去氧化面</t>
-        </is>
-      </c>
+      <c r="H14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="7" t="n">
@@ -777,31 +1518,26 @@
       <c r="B15" s="7" t="inlineStr"/>
       <c r="C15" s="8" t="inlineStr">
         <is>
-          <t>da-14-010634</t>
+          <t>按键2</t>
         </is>
       </c>
       <c r="D15" s="7" t="inlineStr">
         <is>
-          <t>喷砂+
-黑色氧化</t>
+          <t>无</t>
         </is>
       </c>
       <c r="E15" s="7" t="inlineStr">
         <is>
-          <t>6061AL</t>
+          <t>树脂</t>
         </is>
       </c>
       <c r="F15" s="7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H15" s="8" t="inlineStr">
-        <is>
-          <t>局部镭雕去氧化面</t>
-        </is>
-      </c>
+      <c r="H15" s="8" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
       <c r="A16" s="7" t="n">
@@ -810,113 +1546,780 @@
       <c r="B16" s="7" t="inlineStr"/>
       <c r="C16" s="8" t="inlineStr">
         <is>
-          <t>xieyijiexi</t>
+          <t>按键3</t>
         </is>
       </c>
       <c r="D16" s="7" t="inlineStr">
         <is>
-          <t>喷砂+
-黑色氧化</t>
+          <t>无</t>
         </is>
       </c>
       <c r="E16" s="7" t="inlineStr">
         <is>
-          <t>6061AL</t>
+          <t>树脂</t>
         </is>
       </c>
       <c r="F16" s="7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H16" s="8" t="inlineStr">
-        <is>
-          <t>局部镭雕去氧化面</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="inlineStr">
+      <c r="H16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B17" s="7" t="inlineStr"/>
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>按键板</t>
+        </is>
+      </c>
+      <c r="D17" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B18" s="7" t="inlineStr"/>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>电源板</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F18" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="B19" s="7" t="inlineStr"/>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>负极簧片</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E19" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B20" s="7" t="inlineStr"/>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>负极接线片</t>
+        </is>
+      </c>
+      <c r="D20" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E20" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B21" s="7" t="inlineStr"/>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>接口板</t>
+        </is>
+      </c>
+      <c r="D21" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E21" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F21" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="B22" s="7" t="inlineStr"/>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>激光装饰片</t>
+        </is>
+      </c>
+      <c r="D22" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E22" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F22" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8" t="inlineStr"/>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="B23" s="7" t="inlineStr"/>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>镜头</t>
+        </is>
+      </c>
+      <c r="D23" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E23" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F23" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8" t="inlineStr"/>
+    </row>
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="B24" s="7" t="inlineStr"/>
+      <c r="C24" s="8" t="inlineStr">
+        <is>
+          <t>镜头转接件1</t>
+        </is>
+      </c>
+      <c r="D24" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E24" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F24" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8" t="inlineStr"/>
+    </row>
+    <row r="25" ht="60" customHeight="1">
+      <c r="A25" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B25" s="7" t="inlineStr"/>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>镜头转接件2</t>
+        </is>
+      </c>
+      <c r="D25" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E25" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8" t="inlineStr"/>
+    </row>
+    <row r="26" ht="60" customHeight="1">
+      <c r="A26" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="B26" s="7" t="inlineStr"/>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>镜头转接件3</t>
+        </is>
+      </c>
+      <c r="D26" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E26" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F26" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8" t="inlineStr"/>
+    </row>
+    <row r="27" ht="60" customHeight="1">
+      <c r="A27" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="B27" s="7" t="inlineStr"/>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>机芯支架</t>
+        </is>
+      </c>
+      <c r="D27" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E27" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F27" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8" t="inlineStr"/>
+    </row>
+    <row r="28" ht="60" customHeight="1">
+      <c r="A28" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="B28" s="7" t="inlineStr"/>
+      <c r="C28" s="8" t="inlineStr">
+        <is>
+          <t>散热板</t>
+        </is>
+      </c>
+      <c r="D28" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E28" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F28" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8" t="inlineStr"/>
+    </row>
+    <row r="29" ht="60" customHeight="1">
+      <c r="A29" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="B29" s="7" t="inlineStr"/>
+      <c r="C29" s="8" t="inlineStr">
+        <is>
+          <t>手柄</t>
+        </is>
+      </c>
+      <c r="D29" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E29" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F29" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="8" t="inlineStr"/>
+    </row>
+    <row r="30" ht="60" customHeight="1">
+      <c r="A30" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="B30" s="7" t="inlineStr"/>
+      <c r="C30" s="8" t="inlineStr">
+        <is>
+          <t>探测器板</t>
+        </is>
+      </c>
+      <c r="D30" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E30" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F30" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="8" t="inlineStr"/>
+    </row>
+    <row r="31" ht="60" customHeight="1">
+      <c r="A31" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="B31" s="7" t="inlineStr"/>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>显示屏</t>
+        </is>
+      </c>
+      <c r="D31" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E31" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F31" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="8" t="inlineStr"/>
+    </row>
+    <row r="32" ht="60" customHeight="1">
+      <c r="A32" s="7" t="n">
+        <v>22</v>
+      </c>
+      <c r="B32" s="7" t="inlineStr"/>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>显示屏壳体</t>
+        </is>
+      </c>
+      <c r="D32" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E32" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F32" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="8" t="inlineStr"/>
+    </row>
+    <row r="33" ht="60" customHeight="1">
+      <c r="A33" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="B33" s="7" t="inlineStr"/>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>右饰片</t>
+        </is>
+      </c>
+      <c r="D33" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E33" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="8" t="inlineStr"/>
+    </row>
+    <row r="34" ht="60" customHeight="1">
+      <c r="A34" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="B34" s="7" t="inlineStr"/>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>左饰片</t>
+        </is>
+      </c>
+      <c r="D34" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E34" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F34" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="8" t="inlineStr"/>
+    </row>
+    <row r="35" ht="60" customHeight="1">
+      <c r="A35" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B35" s="7" t="inlineStr"/>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>装饰片1</t>
+        </is>
+      </c>
+      <c r="D35" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E35" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F35" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="8" t="inlineStr"/>
+    </row>
+    <row r="36" ht="60" customHeight="1">
+      <c r="A36" s="7" t="n">
+        <v>26</v>
+      </c>
+      <c r="B36" s="7" t="inlineStr"/>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>装饰片2</t>
+        </is>
+      </c>
+      <c r="D36" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E36" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F36" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="8" t="inlineStr"/>
+    </row>
+    <row r="37" ht="60" customHeight="1">
+      <c r="A37" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="B37" s="7" t="inlineStr"/>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>转接座</t>
+        </is>
+      </c>
+      <c r="D37" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E37" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F37" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="8" t="inlineStr"/>
+    </row>
+    <row r="38" ht="60" customHeight="1">
+      <c r="A38" s="7" t="n">
+        <v>28</v>
+      </c>
+      <c r="B38" s="7" t="inlineStr"/>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>转轴座</t>
+        </is>
+      </c>
+      <c r="D38" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E38" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F38" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="8" t="inlineStr"/>
+    </row>
+    <row r="39" ht="60" customHeight="1">
+      <c r="A39" s="7" t="n">
+        <v>29</v>
+      </c>
+      <c r="B39" s="7" t="inlineStr"/>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>主板</t>
+        </is>
+      </c>
+      <c r="D39" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E39" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="8" t="inlineStr"/>
+    </row>
+    <row r="40" ht="60" customHeight="1">
+      <c r="A40" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="B40" s="7" t="inlineStr"/>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>主壳体</t>
+        </is>
+      </c>
+      <c r="D40" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E40" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F40" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="8" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="inlineStr">
         <is>
           <t>合计:</t>
         </is>
       </c>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="5" t="n"/>
-      <c r="D17" s="5" t="n"/>
-      <c r="E17" s="5" t="n"/>
-      <c r="F17" s="5" t="n"/>
-      <c r="G17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="5" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="B41" s="5" t="n"/>
+      <c r="C41" s="5" t="n"/>
+      <c r="D41" s="5" t="n"/>
+      <c r="E41" s="5" t="n"/>
+      <c r="F41" s="5" t="n"/>
+      <c r="G41" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="5" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
         <is>
           <t>未 税 总 价: (人民币)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t>手板加工周期:</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
         <is>
           <t>付款方式: 月结30天</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
         <is>
           <t>交货日期: 确认后 (7) 日内完成</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
         <is>
           <t>验收标准: 依据甲方2D、3D、说明文档等相关文件进行验收</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
         <is>
           <t>备 注:</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
         <is>
           <t>此报价单适用于所有杭州海康威视科技有限公司的子公司及关联公司。</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="3" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
         <is>
           <t>双方以含税价格结算，具体税率按国家税务政策规定，供应商需提供合格的增值税发票，否则按基</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="F29" s="11" t="inlineStr">
+    <row r="53">
+      <c r="F53" s="11" t="inlineStr">
         <is>
           <t>乙方签名确认</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="F30" s="12" t="inlineStr">
+    <row r="54">
+      <c r="F54" s="12" t="inlineStr">
         <is>
           <t>2025-06-09</t>
         </is>
@@ -924,34 +2327,35 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A41:F41"/>
     <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A48:H48"/>
     <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A24:H24"/>
     <mergeCell ref="E7:H7"/>
+    <mergeCell ref="A49:H49"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A45:H45"/>
     <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A25:H25"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A46:H46"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="E5:H5"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A50:H50"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A19:F19"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="F54:H54"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E6:H6"/>
+    <mergeCell ref="A44:H44"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F30:H30"/>
     <mergeCell ref="E2:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/手板报价单_2025-06-09.xlsx
+++ b/手板报价单_2025-06-09.xlsx
@@ -1238,7 +1238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1253,13 +1253,14 @@
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>手板报价  编号:YNMX-25-06-09-314</t>
+          <t>手板报价</t>
         </is>
       </c>
     </row>
@@ -1356,6 +1357,7 @@
         </is>
       </c>
       <c r="H8" s="5" t="n"/>
+      <c r="I8" s="5" t="n"/>
     </row>
     <row r="10" ht="25" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -1390,10 +1392,15 @@
       </c>
       <c r="G10" s="6" t="inlineStr">
         <is>
-          <t>价(未税)</t>
+          <t>单价(未税)</t>
         </is>
       </c>
       <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>总价(未税)</t>
+        </is>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
@@ -1425,7 +1432,10 @@
       <c r="G11" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H11" s="8" t="inlineStr"/>
+      <c r="H11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="7" t="n">
@@ -1453,7 +1463,10 @@
       <c r="G12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="8" t="inlineStr"/>
+      <c r="H12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="n">
@@ -1481,7 +1494,10 @@
       <c r="G13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H13" s="8" t="inlineStr"/>
+      <c r="H13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="7" t="n">
@@ -1509,7 +1525,10 @@
       <c r="G14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H14" s="8" t="inlineStr"/>
+      <c r="H14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="7" t="n">
@@ -1537,7 +1556,10 @@
       <c r="G15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H15" s="8" t="inlineStr"/>
+      <c r="H15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
       <c r="A16" s="7" t="n">
@@ -1565,7 +1587,10 @@
       <c r="G16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H16" s="8" t="inlineStr"/>
+      <c r="H16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8" t="inlineStr"/>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="7" t="n">
@@ -1593,7 +1618,10 @@
       <c r="G17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H17" s="8" t="inlineStr"/>
+      <c r="H17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="7" t="n">
@@ -1621,7 +1649,10 @@
       <c r="G18" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H18" s="8" t="inlineStr"/>
+      <c r="H18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8" t="inlineStr"/>
     </row>
     <row r="19" ht="60" customHeight="1">
       <c r="A19" s="7" t="n">
@@ -1649,7 +1680,10 @@
       <c r="G19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H19" s="8" t="inlineStr"/>
+      <c r="H19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8" t="inlineStr"/>
     </row>
     <row r="20" ht="60" customHeight="1">
       <c r="A20" s="7" t="n">
@@ -1677,7 +1711,10 @@
       <c r="G20" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H20" s="8" t="inlineStr"/>
+      <c r="H20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8" t="inlineStr"/>
     </row>
     <row r="21" ht="60" customHeight="1">
       <c r="A21" s="7" t="n">
@@ -1705,7 +1742,10 @@
       <c r="G21" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H21" s="8" t="inlineStr"/>
+      <c r="H21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8" t="inlineStr"/>
     </row>
     <row r="22" ht="60" customHeight="1">
       <c r="A22" s="7" t="n">
@@ -1733,7 +1773,10 @@
       <c r="G22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H22" s="8" t="inlineStr"/>
+      <c r="H22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="8" t="inlineStr"/>
     </row>
     <row r="23" ht="60" customHeight="1">
       <c r="A23" s="7" t="n">
@@ -1761,7 +1804,10 @@
       <c r="G23" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H23" s="8" t="inlineStr"/>
+      <c r="H23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8" t="inlineStr"/>
     </row>
     <row r="24" ht="60" customHeight="1">
       <c r="A24" s="7" t="n">
@@ -1789,7 +1835,10 @@
       <c r="G24" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H24" s="8" t="inlineStr"/>
+      <c r="H24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="8" t="inlineStr"/>
     </row>
     <row r="25" ht="60" customHeight="1">
       <c r="A25" s="7" t="n">
@@ -1817,7 +1866,10 @@
       <c r="G25" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H25" s="8" t="inlineStr"/>
+      <c r="H25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="8" t="inlineStr"/>
     </row>
     <row r="26" ht="60" customHeight="1">
       <c r="A26" s="7" t="n">
@@ -1845,7 +1897,10 @@
       <c r="G26" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H26" s="8" t="inlineStr"/>
+      <c r="H26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="8" t="inlineStr"/>
     </row>
     <row r="27" ht="60" customHeight="1">
       <c r="A27" s="7" t="n">
@@ -1873,7 +1928,10 @@
       <c r="G27" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H27" s="8" t="inlineStr"/>
+      <c r="H27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="8" t="inlineStr"/>
     </row>
     <row r="28" ht="60" customHeight="1">
       <c r="A28" s="7" t="n">
@@ -1901,7 +1959,10 @@
       <c r="G28" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H28" s="8" t="inlineStr"/>
+      <c r="H28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="8" t="inlineStr"/>
     </row>
     <row r="29" ht="60" customHeight="1">
       <c r="A29" s="7" t="n">
@@ -1929,7 +1990,10 @@
       <c r="G29" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H29" s="8" t="inlineStr"/>
+      <c r="H29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="8" t="inlineStr"/>
     </row>
     <row r="30" ht="60" customHeight="1">
       <c r="A30" s="7" t="n">
@@ -1957,7 +2021,10 @@
       <c r="G30" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H30" s="8" t="inlineStr"/>
+      <c r="H30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="8" t="inlineStr"/>
     </row>
     <row r="31" ht="60" customHeight="1">
       <c r="A31" s="7" t="n">
@@ -1985,7 +2052,10 @@
       <c r="G31" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H31" s="8" t="inlineStr"/>
+      <c r="H31" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="8" t="inlineStr"/>
     </row>
     <row r="32" ht="60" customHeight="1">
       <c r="A32" s="7" t="n">
@@ -2013,7 +2083,10 @@
       <c r="G32" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H32" s="8" t="inlineStr"/>
+      <c r="H32" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr"/>
     </row>
     <row r="33" ht="60" customHeight="1">
       <c r="A33" s="7" t="n">
@@ -2041,7 +2114,10 @@
       <c r="G33" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H33" s="8" t="inlineStr"/>
+      <c r="H33" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr"/>
     </row>
     <row r="34" ht="60" customHeight="1">
       <c r="A34" s="7" t="n">
@@ -2069,7 +2145,10 @@
       <c r="G34" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H34" s="8" t="inlineStr"/>
+      <c r="H34" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr"/>
     </row>
     <row r="35" ht="60" customHeight="1">
       <c r="A35" s="7" t="n">
@@ -2097,7 +2176,10 @@
       <c r="G35" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H35" s="8" t="inlineStr"/>
+      <c r="H35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr"/>
     </row>
     <row r="36" ht="60" customHeight="1">
       <c r="A36" s="7" t="n">
@@ -2125,7 +2207,10 @@
       <c r="G36" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H36" s="8" t="inlineStr"/>
+      <c r="H36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr"/>
     </row>
     <row r="37" ht="60" customHeight="1">
       <c r="A37" s="7" t="n">
@@ -2153,7 +2238,10 @@
       <c r="G37" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H37" s="8" t="inlineStr"/>
+      <c r="H37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr"/>
     </row>
     <row r="38" ht="60" customHeight="1">
       <c r="A38" s="7" t="n">
@@ -2181,7 +2269,10 @@
       <c r="G38" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H38" s="8" t="inlineStr"/>
+      <c r="H38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr"/>
     </row>
     <row r="39" ht="60" customHeight="1">
       <c r="A39" s="7" t="n">
@@ -2209,7 +2300,10 @@
       <c r="G39" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H39" s="8" t="inlineStr"/>
+      <c r="H39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr"/>
     </row>
     <row r="40" ht="60" customHeight="1">
       <c r="A40" s="7" t="n">
@@ -2237,7 +2331,10 @@
       <c r="G40" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H40" s="8" t="inlineStr"/>
+      <c r="H40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="9" t="inlineStr">
@@ -2250,15 +2347,16 @@
       <c r="D41" s="5" t="n"/>
       <c r="E41" s="5" t="n"/>
       <c r="F41" s="5" t="n"/>
-      <c r="G41" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="5" t="n"/>
+      <c r="G41" s="5" t="n"/>
+      <c r="H41" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="5" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>未 税 总 价: (人民币)</t>
+          <t>未 税 总 价: 0 (人民币)</t>
         </is>
       </c>
     </row>
@@ -2312,14 +2410,14 @@
       </c>
     </row>
     <row r="53">
-      <c r="F53" s="11" t="inlineStr">
+      <c r="G53" s="11" t="inlineStr">
         <is>
           <t>乙方签名确认</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="F54" s="12" t="inlineStr">
+      <c r="G54" s="12" t="inlineStr">
         <is>
           <t>2025-06-09</t>
         </is>
@@ -2327,33 +2425,33 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="E3:I3"/>
     <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A46:I46"/>
     <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="A50:I50"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="A47:I47"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A46:H46"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="E5:H5"/>
     <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="G54:I54"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="A44:I44"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="A49:I49"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A45:I45"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
